--- a/biology/Médecine/Pirfénidone/Pirfénidone.xlsx
+++ b/biology/Médecine/Pirfénidone/Pirfénidone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pirf%C3%A9nidone</t>
+          <t>Pirfénidone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La pirfénidone (5-méthyl-1-phényl-2-(1H)-pyridone) est un principe actif de type immunosuppresseur avec des propriétés antifibrotiques et anti-inflammatoires utilisé pour le traitement de la fibrose pulmonaire idiopathique (FPI).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pirf%C3%A9nidone</t>
+          <t>Pirfénidone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est commercialisée sous le nom d’Esbriet en Amérique du Nord et en Europe et sous celui de Pirespa au Japon et en Corée du Sud.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pirf%C3%A9nidone</t>
+          <t>Pirfénidone</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle agit par inhibition de la synthèse de HSP47 induit par le facteur de croissance de transformation TGF-béta[2] et de la synthèse du facteur de nécrose tumorale (TNF-alpha)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle agit par inhibition de la synthèse de HSP47 induit par le facteur de croissance de transformation TGF-béta et de la synthèse du facteur de nécrose tumorale (TNF-alpha).
 La pirfénidone inhibe le facteur de croissance basique des fibroblastes, le facteur de croissance dérivé des plaquettes (en) et la prolifération cellulaire stimulée par le facteur de croissance transformant β (TGF-ß (en)). 
-Dans les fibromes utérins, la pirfénidone inhibe la prolifération cellulaire et diminue de manière significative les niveaux d'ARN messager codant le collagène de type I et du collagène de type III[4].
+Dans les fibromes utérins, la pirfénidone inhibe la prolifération cellulaire et diminue de manière significative les niveaux d'ARN messager codant le collagène de type I et du collagène de type III.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pirf%C3%A9nidone</t>
+          <t>Pirfénidone</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 14 mars 2012, en France, la Haute Autorité de Santé (HAS) estimait que le service médical rendu (SMR) par la pirfénidone est faible et uniquement chez les patients au diagnostic clinique et radiologique confirmé de FPI et avec les critères fonctionnels respiratoires suivants : capacité vitale forcée (CVF) supérieure ou égale à 50 % et diffusion libre du CO (DLCo) supérieure ou égale à 35 %[5].
-Le 18 mai 2014, InterMune Inc., l'entreprise pharmaceutique qui commercialise le médicament, publie les résultats de l'étude de phase III ASCEND. Celle-ci montre que « comparativement au placebo, la pirfénidone a diminué la progression de la maladie, comme en ont témoigné la fonction pulmonaire, la tolérance à l’exercice et la survie sans progression chez les patients atteints de FPI. Le traitement a objectivé un profil d’effets indésirables acceptable et une diminution de la mortalité[6]. »
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 14 mars 2012, en France, la Haute Autorité de Santé (HAS) estimait que le service médical rendu (SMR) par la pirfénidone est faible et uniquement chez les patients au diagnostic clinique et radiologique confirmé de FPI et avec les critères fonctionnels respiratoires suivants : capacité vitale forcée (CVF) supérieure ou égale à 50 % et diffusion libre du CO (DLCo) supérieure ou égale à 35 %.
+Le 18 mai 2014, InterMune Inc., l'entreprise pharmaceutique qui commercialise le médicament, publie les résultats de l'étude de phase III ASCEND. Celle-ci montre que « comparativement au placebo, la pirfénidone a diminué la progression de la maladie, comme en ont témoigné la fonction pulmonaire, la tolérance à l’exercice et la survie sans progression chez les patients atteints de FPI. Le traitement a objectivé un profil d’effets indésirables acceptable et une diminution de la mortalité. »
 Depuis 2015, la pirfénidone est en phase IV.
 </t>
         </is>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pirf%C3%A9nidone</t>
+          <t>Pirfénidone</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets indésirables rapportés sont[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets indésirables rapportés sont :
 fatigue ;
 myalgie, arthralgie ;
 réaction de photosensibilisation, éruption cutanée ;
@@ -623,10 +643,10 @@
 insomnie ;
 vertiges, maux de tête, somnolence, dysgueusie ;
 bouffées de chaleur.
-Le 29 octobre 2020, l'Agence nationale de sécurité du médicament et des produits de santé (ANSM) publie une mise à jour importante de sécurité et de nouvelles recommandations concernant les risques d’atteintes hépatiques  d’origine médicamenteuse avec Esbriet (pirfénidone)[7]. Cet article précise que des cas graves de lésions hépatiques d’origine médicamenteuse ont été récemment signalés avec la pirfénidone, dont certains d'issue fatale.
-Un bilan hépatique (ALAT, ASAT, bilirubine) doit être réalisé avant l’initiation d’un traitement par pirfénidone. Par la suite, un bilan doit être réalisé mensuellement pendant les 6 premiers mois de traitement puis tous les 3 mois pendant toute la durée du traitement[7].
-Un examen clinique et un bilan de la fonction hépatique doivent être rapidement réalisés chez les patients présentant des symptômes évoquant une atteinte hépatique d’origine médicamenteuse, tel que fatigue, anorexie, gêne abdominale supérieure droite, urines foncées ou ictère[7].
-Une augmentation des transaminases peut nécessiter une réduction de dose, une interruption de traitement ou un arrêt définitif du traitement par pirfénidone. En cas d’augmentation significative des aminotransférases hépatiques avec une hyperbilirubinémie ou en cas de signes et symptômes cliniques d’atteinte hépatique d’origine médicamenteuse, le traitement par pirfénidone doit être arrêté définitivement[7].
+Le 29 octobre 2020, l'Agence nationale de sécurité du médicament et des produits de santé (ANSM) publie une mise à jour importante de sécurité et de nouvelles recommandations concernant les risques d’atteintes hépatiques  d’origine médicamenteuse avec Esbriet (pirfénidone). Cet article précise que des cas graves de lésions hépatiques d’origine médicamenteuse ont été récemment signalés avec la pirfénidone, dont certains d'issue fatale.
+Un bilan hépatique (ALAT, ASAT, bilirubine) doit être réalisé avant l’initiation d’un traitement par pirfénidone. Par la suite, un bilan doit être réalisé mensuellement pendant les 6 premiers mois de traitement puis tous les 3 mois pendant toute la durée du traitement.
+Un examen clinique et un bilan de la fonction hépatique doivent être rapidement réalisés chez les patients présentant des symptômes évoquant une atteinte hépatique d’origine médicamenteuse, tel que fatigue, anorexie, gêne abdominale supérieure droite, urines foncées ou ictère.
+Une augmentation des transaminases peut nécessiter une réduction de dose, une interruption de traitement ou un arrêt définitif du traitement par pirfénidone. En cas d’augmentation significative des aminotransférases hépatiques avec une hyperbilirubinémie ou en cas de signes et symptômes cliniques d’atteinte hépatique d’origine médicamenteuse, le traitement par pirfénidone doit être arrêté définitivement.
 </t>
         </is>
       </c>
